--- a/варианты/простоегэ/2/22.xlsx
+++ b/варианты/простоегэ/2/22.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="6060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="6060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,12 +49,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,9 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -139,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -174,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,7 +355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -359,22 +363,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ16"/>
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:Z13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
-    <col min="4" max="42" width="5.5703125" style="1" customWidth="1"/>
-    <col min="43" max="1024" width="8.5703125" style="1"/>
+    <col min="3" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="49" width="3.5703125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="11.28515625" style="1" customWidth="1"/>
+    <col min="51" max="64" width="2.7109375" style="1" customWidth="1"/>
+    <col min="65" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,188 +390,143 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="2">
         <v>6</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="2">
         <v>7</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="2">
         <v>8</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="2">
         <v>9</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="2">
         <v>10</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="2">
         <v>11</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="2">
         <v>12</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="2">
         <v>13</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="2">
         <v>14</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="2">
         <v>15</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="2">
         <v>16</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="2">
         <v>17</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="2">
         <v>18</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="2">
         <v>19</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="2">
         <v>20</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="2">
         <v>21</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="2">
         <v>22</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="2">
         <v>23</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="2">
         <v>24</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="2">
         <v>25</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="2">
         <v>26</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="2">
         <v>27</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="2">
         <v>28</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="2">
         <v>29</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="2">
         <v>30</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="2">
         <v>31</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="2">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="2">
         <v>33</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="2">
         <v>34</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="2">
         <v>35</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="2">
         <v>36</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="2">
         <v>37</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="2">
         <v>38</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="2">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="2">
         <v>40</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="2">
         <v>41</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="2">
         <v>42</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="2">
         <v>43</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AV1" s="2">
         <v>44</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AW1" s="2">
         <v>45</v>
       </c>
-      <c r="AW1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>55</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>57</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -575,14 +536,21 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="1" t="b">
+        <f>SUM(E2:AW2)=B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -592,8 +560,8 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="D3" s="2">
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -601,8 +569,15 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1" t="b">
+        <f t="shared" ref="AX3:AX15" si="0">SUM(E3:AW3)=B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -612,8 +587,8 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="D4" s="2">
+        <v>3</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -627,8 +602,15 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -638,20 +620,8 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
+      <c r="D5" s="2">
+        <v>4</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -659,8 +629,27 @@
       <c r="R5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -670,8 +659,8 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
+      <c r="D6" s="2">
+        <v>5</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -688,8 +677,15 @@
       <c r="Q6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -699,8 +695,8 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="R7" s="1">
-        <v>1</v>
+      <c r="D7" s="2">
+        <v>6</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
@@ -714,8 +710,15 @@
       <c r="V7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -725,8 +728,8 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="1">
-        <v>1</v>
+      <c r="D8" s="2">
+        <v>7</v>
       </c>
       <c r="X8" s="1">
         <v>1</v>
@@ -737,8 +740,15 @@
       <c r="Z8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -748,14 +758,21 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="AA9" s="1">
-        <v>1</v>
+      <c r="D9" s="2">
+        <v>8</v>
       </c>
       <c r="AB9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -765,20 +782,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
+      <c r="D10" s="2">
+        <v>9</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -792,8 +797,27 @@
       <c r="T10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -803,20 +827,8 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
+      <c r="D11" s="2">
+        <v>10</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -830,8 +842,24 @@
       <c r="T11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1" t="b">
+        <f>SUM(E11:AW11)=B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -841,26 +869,33 @@
       <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>1</v>
+      <c r="D12" s="2">
+        <v>11</v>
       </c>
       <c r="Z12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -870,17 +905,24 @@
       <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -890,8 +932,8 @@
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="1">
-        <v>1</v>
+      <c r="D14" s="2">
+        <v>13</v>
       </c>
       <c r="X14" s="1">
         <v>1</v>
@@ -914,8 +956,15 @@
       <c r="AD14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -925,8 +974,8 @@
       <c r="C15" s="1">
         <v>13</v>
       </c>
-      <c r="AE15" s="1">
-        <v>1</v>
+      <c r="D15" s="2">
+        <v>14</v>
       </c>
       <c r="AF15" s="1">
         <v>1</v>
@@ -937,184 +986,191 @@
       <c r="AH15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <f>SUM(D2:D15)</f>
+      <c r="AI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f>SUM(E2:E15)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" ref="E16:AT16" si="0">SUM(E2:E15)</f>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:AU16" si="1">SUM(F2:F15)</f>
         <v>2</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(G2:G15)</f>
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T16" s="1">
-        <f t="shared" si="0"/>
+      <c r="AC16" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="X16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AA16" s="1">
-        <f t="shared" si="0"/>
+      <c r="AD16" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AB16" s="1">
-        <f t="shared" si="0"/>
+      <c r="AE16" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="AF16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:AA9 D14:AA15 L10:AA13">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="E16:AW16">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1125,8 +1181,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:AM9 D14:AM16 L10:AM13">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E16:AN16">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1137,8 +1193,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:AR9 D14:AR16 L10:AR13">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E16:AS16">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1149,6 +1205,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E3:AW4 E14:AW15 Q10:AW13 H2:AW2 E2:F2 E6:AW9 E5:L5 Q5:AW5">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
